--- a/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/DataInputRecord.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/DataInputRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15223E7C-9645-426A-A263-07A9EA2F8321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8449AEB-0734-4A50-942A-8E2DE00104D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -637,6 +637,12 @@
     <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -647,12 +653,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -999,7 +999,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1017,27 +1017,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
       <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1050,10 +1050,10 @@
       <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="10" t="s">
         <v>53</v>
       </c>
@@ -1064,10 +1064,10 @@
       <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
       <c r="E4" s="8"/>
@@ -1076,10 +1076,10 @@
       <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="33"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
       <c r="E5" s="8"/>
@@ -1088,10 +1088,10 @@
       <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="8"/>
@@ -1100,10 +1100,10 @@
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="4"/>
       <c r="D7" s="11"/>
       <c r="E7" s="8"/>
